--- a/database/predictedDataSet.xlsx
+++ b/database/predictedDataSet.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehedi\PycharmProjects\Child-disease-prediction\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +109,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +195,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +406,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -467,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -490,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -513,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -536,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -559,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -582,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -605,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -628,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -651,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -674,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -697,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -720,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -743,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -766,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -789,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -812,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -835,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -858,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -881,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>

--- a/database/predictedDataSet.xlsx
+++ b/database/predictedDataSet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,17 +409,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,25 +582,25 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,22 +608,22 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,114 +631,114 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
